--- a/data/proyectos_ec.xlsx
+++ b/data/proyectos_ec.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="65">
   <si>
     <t>Finlandia</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Plan de acción en Economía Circular</t>
   </si>
 </sst>
 </file>
@@ -542,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1074,7 +1077,9 @@
       <c r="A48" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="C48" s="1"/>
     </row>
   </sheetData>

--- a/data/proyectos_ec.xlsx
+++ b/data/proyectos_ec.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="65">
   <si>
     <t>Finlandia</t>
   </si>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1080,7 +1080,9 @@
       <c r="B48" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data/proyectos_ec.xlsx
+++ b/data/proyectos_ec.xlsx
@@ -4,17 +4,128 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="23715" windowHeight="9780"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="6" r:id="rId1"/>
+    <sheet name="paises" sheetId="6" r:id="rId1"/>
+    <sheet name="ciudades" sheetId="8" r:id="rId2"/>
+    <sheet name="uy" sheetId="7" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">paises!$A$1:$C$47</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>pdante</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>pdante:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Vinculados a educación, generación de información, reconocimiento de acciones (premio) e investigación y/o cooperación entre actores (gobiernos, empresas, centros de conocimiento) para generar un mayor entendimiento de las necesidades de cada uno y buscar soluciones en base a la experiencia de cada uno.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>pdante:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Apoyo entre empresas/ emprendedores y el gobierno para promover negocios innovadores en empresas constituidas o emprendimientos.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>pdante:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Consiste en proyectos para compras públicas que traccionan la economía circular, así como infraestructuras necesarias para lograr cerrar los bucles.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>pdante:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+normas y regulaciones que facilitan la implementación de negocios, el desarrollo de conocimiento, así como la participación de la población. Incentivos fiscales hacia una economía circular, como el aumento de impuestos a materiales nuevos o no renovables bajando impuestos al trabajo, impuesto a emisiones de CO2, tasas a la disposición final.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="162">
   <si>
     <t>Finlandia</t>
   </si>
@@ -37,9 +148,6 @@
     <t>Japón</t>
   </si>
   <si>
-    <t>Estrategia de EC</t>
-  </si>
-  <si>
     <t>Visión país hacia EC, sin Hojas de Rutas</t>
   </si>
   <si>
@@ -67,12 +175,6 @@
     <t>Canadá</t>
   </si>
   <si>
-    <t>Estados Unidos</t>
-  </si>
-  <si>
-    <t>Desarrollo territorial en sectores específicos</t>
-  </si>
-  <si>
     <t>Hojas de Rutas en Proceso de Construcción</t>
   </si>
   <si>
@@ -127,24 +229,9 @@
     <t>Compras públicas sostenibles (2007)</t>
   </si>
   <si>
-    <t>Estrategia: Convirtiéndose en un Estado verde</t>
-  </si>
-  <si>
-    <t>Desarrollo territorial de iniciativas referentes a la gestión de residuos</t>
-  </si>
-  <si>
     <t>Consejo Nacional Cero Residuo (2013)</t>
   </si>
   <si>
-    <t>Manejo de Residuos</t>
-  </si>
-  <si>
-    <t>Hoja de Ruta en Economía circular</t>
-  </si>
-  <si>
-    <t>Hoja de Ruta en EC</t>
-  </si>
-  <si>
     <t>Bélgica</t>
   </si>
   <si>
@@ -196,9 +283,6 @@
     <t>Portugal</t>
   </si>
   <si>
-    <t>Reino Unido</t>
-  </si>
-  <si>
     <t>República Checa</t>
   </si>
   <si>
@@ -208,14 +292,344 @@
     <t>Uruguay</t>
   </si>
   <si>
-    <t>Plan de acción en Economía Circular</t>
+    <t>Plan de acción en Economía Circular (2019)</t>
+  </si>
+  <si>
+    <t>España Circular 2030 (2018)</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Ordenanza de reciclaje en Construcción (2010)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago </t>
+  </si>
+  <si>
+    <t>Boulder (Colorado)</t>
+  </si>
+  <si>
+    <t>programa de construcción ecológica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San José (California) </t>
+  </si>
+  <si>
+    <t>programa de construcción, demolición y depósito de escombros</t>
+  </si>
+  <si>
+    <t>Nueva York</t>
+  </si>
+  <si>
+    <t>prohíbe el uso de envases de espuma de poliestireno en alimentos y bebidas.</t>
+  </si>
+  <si>
+    <t>Acciones locales</t>
+  </si>
+  <si>
+    <t>Milán</t>
+  </si>
+  <si>
+    <t>Organización Recup: proyecto de recuperación de comida</t>
+  </si>
+  <si>
+    <t>Peterborough</t>
+  </si>
+  <si>
+    <t>Opportunity Peterborough</t>
+  </si>
+  <si>
+    <t>Londres</t>
+  </si>
+  <si>
+    <t>Circular London (2017)</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>Zero waste (2009)</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>Libro Blanco de la Economía Circular</t>
+  </si>
+  <si>
+    <t>Libro Blanco de la Economía Circular (2016)</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Aquitania</t>
+  </si>
+  <si>
+    <t>Hoja de Ruta (2014)</t>
+  </si>
+  <si>
+    <t>Región de Bruselas</t>
+  </si>
+  <si>
+    <t>Programa regional de EC (2016)</t>
+  </si>
+  <si>
+    <t>Oporto</t>
+  </si>
+  <si>
+    <t>Servicio Intermunicipal de Gestión de residuos Grande Porto (2015)</t>
+  </si>
+  <si>
+    <t>Baix Camp</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Montejurra</t>
+  </si>
+  <si>
+    <t>Recogida selectiva y compostaje centralizado</t>
+  </si>
+  <si>
+    <t>Gironde</t>
+  </si>
+  <si>
+    <t>Niort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIVOM de Bapaume </t>
+  </si>
+  <si>
+    <t>Cork</t>
+  </si>
+  <si>
+    <t>Kerry</t>
+  </si>
+  <si>
+    <t>Limerick</t>
+  </si>
+  <si>
+    <t>Cupello</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Padova</t>
+  </si>
+  <si>
+    <t>Compostaje de residuos verdes</t>
+  </si>
+  <si>
+    <t>Amtres</t>
+  </si>
+  <si>
+    <t>Lipor</t>
+  </si>
+  <si>
+    <t>Arun</t>
+  </si>
+  <si>
+    <t>Castle Morpeth</t>
+  </si>
+  <si>
+    <t>Wyecycle</t>
+  </si>
+  <si>
+    <t>Compostaje doméstico</t>
+  </si>
+  <si>
+    <t>Circular Economy of Construction Industry Promotion Office (CECIPO)</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Circular Economy Symposium (CES) (2019)</t>
+  </si>
+  <si>
+    <t> Iniciativas</t>
+  </si>
+  <si>
+    <t>Impacto</t>
+  </si>
+  <si>
+    <t>Plataformas de conocimiento/ colaboración</t>
+  </si>
+  <si>
+    <t>Apoyo a emprendedores</t>
+  </si>
+  <si>
+    <t>Compras e infraestructuras públicas</t>
+  </si>
+  <si>
+    <t>Marco regulatorio y fiscal</t>
+  </si>
+  <si>
+    <t>MGAP: Desarrollo y adaptación del cambio climático (DACC) en gestión de efluentes de lechería</t>
+  </si>
+  <si>
+    <t>agua y residuos</t>
+  </si>
+  <si>
+    <t>MVOTMA: Fondo Verde para el Clima</t>
+  </si>
+  <si>
+    <t>general</t>
+  </si>
+  <si>
+    <t>MGAP, MVOTMA: Proyecto Ganadería Climáticamente Inteligente</t>
+  </si>
+  <si>
+    <t>agua, suelo y emisiones</t>
+  </si>
+  <si>
+    <t>UTE, MVOTMA, MIEM, MSP: Plan junta de lámparas</t>
+  </si>
+  <si>
+    <t>residuos</t>
+  </si>
+  <si>
+    <t>Antel Integra: Valorización de residuos de aparatos eléctricos y electrónicos</t>
+  </si>
+  <si>
+    <t>MIEM, MVOTMA, MGAP: Proyectos demostrativos de Biovalor</t>
+  </si>
+  <si>
+    <t>Parque tecnológico industrial del Cerro: Proyecto valorizando sus residuos</t>
+  </si>
+  <si>
+    <t>CTplas: valorización de residuos y/o mejora de recolección</t>
+  </si>
+  <si>
+    <t>Intendencia de Flores: Ecoparque Industrial Flores</t>
+  </si>
+  <si>
+    <t>ACCE: Política de Compras Públicas Sostenibles</t>
+  </si>
+  <si>
+    <t>UdelaR: Semillero de economía circular y regenerativa del Espacio interdisciplinario -Escuela de Diseño</t>
+  </si>
+  <si>
+    <t>UCUDAL: Departamento de Ciencia y Tecnología de Alimentos - Valorización los residuos de la industria de alimentos</t>
+  </si>
+  <si>
+    <t>Red Nacional de Educación Ambiental para el Desarrollo Humano Sustentable</t>
+  </si>
+  <si>
+    <t>MIEM: Plan Nacional de Eficiencia Energética e instrumentos de promoción</t>
+  </si>
+  <si>
+    <t>energía</t>
+  </si>
+  <si>
+    <t>MIEM: Proyecto MOVÉS</t>
+  </si>
+  <si>
+    <t>transporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decreto reglamentario de bolsas plásticas </t>
+  </si>
+  <si>
+    <t>Ley de Envases (17849) y demás decretos de REP (neumáticos, baterías, envases agroquímicos)</t>
+  </si>
+  <si>
+    <t>Deducción de IRAE para inversiones en producción más limpia a través de la COMAP</t>
+  </si>
+  <si>
+    <t>ANDE, Biovalor: Programa de Oportunidades Circulares</t>
+  </si>
+  <si>
+    <t>MVOTMA: Acciones para mejorar la cuenca del Sta. Lucia con producción más limpia</t>
+  </si>
+  <si>
+    <t>CTplas: Proyecto Sello +CIRCULAR</t>
+  </si>
+  <si>
+    <t>Agesic: Trámites en línea</t>
+  </si>
+  <si>
+    <t>Sistema de las Naciones Unidas y el Gobierno Nacional, PAGE: Premio Uruguay Circular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proyecto DACC + Biovalor + INIA + Udelar + UTEC + UTU: Circularidad de nutrientes en lechería </t>
+  </si>
+  <si>
+    <t>UTE: puestos de recarga de transporte eléctrico</t>
+  </si>
+  <si>
+    <t>Prendetec: Reciclaje de ceibalitas</t>
+  </si>
+  <si>
+    <t>UM: Centro de Producción más Limpia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuador </t>
+  </si>
+  <si>
+    <t>Hoja de Ruta en EC 2018</t>
+  </si>
+  <si>
+    <t>Hoja de Ruta en Economía circular 2019</t>
+  </si>
+  <si>
+    <t>Manejo de Residuos 1990</t>
+  </si>
+  <si>
+    <t>Estrategia: Convirtiéndose en un Estado verde 2015</t>
+  </si>
+  <si>
+    <t>Estrategia de EC 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordenanza de reciclaje en Construcción </t>
+  </si>
+  <si>
+    <r>
+      <t>Proyecto de ley sobre gestión integral de residuos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="23"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, cuyo objetivo es proteger el ambiente, promover un modelo de desarrollo sostenible tomando en cuenta varios principios de la economía circular.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoja de Rutas </t>
+  </si>
+  <si>
+    <t>ciudad</t>
+  </si>
+  <si>
+    <t>vision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tipo </t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,16 +637,95 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF767171"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF767171"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F497D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5D9F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -240,21 +733,113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -543,28 +1128,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="84.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -572,10 +1157,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -583,10 +1168,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -594,10 +1179,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -605,10 +1190,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -616,10 +1201,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -627,10 +1212,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -638,131 +1223,131 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -770,10 +1355,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -781,76 +1366,76 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -858,98 +1443,98 @@
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="2" t="s">
-        <v>12</v>
+      <c r="A36" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -957,10 +1542,10 @@
         <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -968,10 +1553,10 @@
         <v>10</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -979,21 +1564,21 @@
         <v>11</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1001,10 +1586,10 @@
         <v>14</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1012,32 +1597,32 @@
         <v>15</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="2" customFormat="1">
+      <c r="A44" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1045,56 +1630,1238 @@
         <v>17</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>8</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="3" t="s">
-        <v>63</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="2" customFormat="1">
+      <c r="A48" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" s="2" customFormat="1"/>
   </sheetData>
+  <autoFilter ref="A1:C47"/>
   <hyperlinks>
     <hyperlink ref="B5" location="_ftn1" display="_ftn1"/>
     <hyperlink ref="B6" location="_ftn2" display="_ftn2"/>
-    <hyperlink ref="B41" location="_ftn7" display="_ftn7"/>
-    <hyperlink ref="B43" location="_ftn8" display="_ftn8"/>
-    <hyperlink ref="B44" location="_ftn9" display="_ftn9"/>
-    <hyperlink ref="B46" location="_ftn10" display="_ftn10"/>
-    <hyperlink ref="B47" location="_ftn11" display="_ftn11"/>
-    <hyperlink ref="B9:B36" location="_ftn4" display="_ftn4"/>
+    <hyperlink ref="B40" location="_ftn7" display="_ftn7"/>
+    <hyperlink ref="B42" location="_ftn8" display="_ftn8"/>
+    <hyperlink ref="B43" location="_ftn9" display="_ftn9"/>
+    <hyperlink ref="B45" location="_ftn10" display="_ftn10"/>
+    <hyperlink ref="B46" location="_ftn11" display="_ftn11"/>
+    <hyperlink ref="B9:B35" location="_ftn4" display="_ftn4"/>
+    <hyperlink ref="B44" location="_ftn10" display="_ftn10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A10" r:id="rId1" display="https://www.seeker.com/how-san-francisco-is-becoming-a-zero-waste-city-1893330043.html"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" style="17" customWidth="1"/>
+    <col min="2" max="6" width="33.140625" style="17" customWidth="1"/>
+    <col min="7" max="250" width="11.42578125" style="4"/>
+    <col min="251" max="251" width="28.42578125" style="4" customWidth="1"/>
+    <col min="252" max="256" width="33.140625" style="4" customWidth="1"/>
+    <col min="257" max="506" width="11.42578125" style="4"/>
+    <col min="507" max="507" width="28.42578125" style="4" customWidth="1"/>
+    <col min="508" max="512" width="33.140625" style="4" customWidth="1"/>
+    <col min="513" max="762" width="11.42578125" style="4"/>
+    <col min="763" max="763" width="28.42578125" style="4" customWidth="1"/>
+    <col min="764" max="768" width="33.140625" style="4" customWidth="1"/>
+    <col min="769" max="1018" width="11.42578125" style="4"/>
+    <col min="1019" max="1019" width="28.42578125" style="4" customWidth="1"/>
+    <col min="1020" max="1024" width="33.140625" style="4" customWidth="1"/>
+    <col min="1025" max="1274" width="11.42578125" style="4"/>
+    <col min="1275" max="1275" width="28.42578125" style="4" customWidth="1"/>
+    <col min="1276" max="1280" width="33.140625" style="4" customWidth="1"/>
+    <col min="1281" max="1530" width="11.42578125" style="4"/>
+    <col min="1531" max="1531" width="28.42578125" style="4" customWidth="1"/>
+    <col min="1532" max="1536" width="33.140625" style="4" customWidth="1"/>
+    <col min="1537" max="1786" width="11.42578125" style="4"/>
+    <col min="1787" max="1787" width="28.42578125" style="4" customWidth="1"/>
+    <col min="1788" max="1792" width="33.140625" style="4" customWidth="1"/>
+    <col min="1793" max="2042" width="11.42578125" style="4"/>
+    <col min="2043" max="2043" width="28.42578125" style="4" customWidth="1"/>
+    <col min="2044" max="2048" width="33.140625" style="4" customWidth="1"/>
+    <col min="2049" max="2298" width="11.42578125" style="4"/>
+    <col min="2299" max="2299" width="28.42578125" style="4" customWidth="1"/>
+    <col min="2300" max="2304" width="33.140625" style="4" customWidth="1"/>
+    <col min="2305" max="2554" width="11.42578125" style="4"/>
+    <col min="2555" max="2555" width="28.42578125" style="4" customWidth="1"/>
+    <col min="2556" max="2560" width="33.140625" style="4" customWidth="1"/>
+    <col min="2561" max="2810" width="11.42578125" style="4"/>
+    <col min="2811" max="2811" width="28.42578125" style="4" customWidth="1"/>
+    <col min="2812" max="2816" width="33.140625" style="4" customWidth="1"/>
+    <col min="2817" max="3066" width="11.42578125" style="4"/>
+    <col min="3067" max="3067" width="28.42578125" style="4" customWidth="1"/>
+    <col min="3068" max="3072" width="33.140625" style="4" customWidth="1"/>
+    <col min="3073" max="3322" width="11.42578125" style="4"/>
+    <col min="3323" max="3323" width="28.42578125" style="4" customWidth="1"/>
+    <col min="3324" max="3328" width="33.140625" style="4" customWidth="1"/>
+    <col min="3329" max="3578" width="11.42578125" style="4"/>
+    <col min="3579" max="3579" width="28.42578125" style="4" customWidth="1"/>
+    <col min="3580" max="3584" width="33.140625" style="4" customWidth="1"/>
+    <col min="3585" max="3834" width="11.42578125" style="4"/>
+    <col min="3835" max="3835" width="28.42578125" style="4" customWidth="1"/>
+    <col min="3836" max="3840" width="33.140625" style="4" customWidth="1"/>
+    <col min="3841" max="4090" width="11.42578125" style="4"/>
+    <col min="4091" max="4091" width="28.42578125" style="4" customWidth="1"/>
+    <col min="4092" max="4096" width="33.140625" style="4" customWidth="1"/>
+    <col min="4097" max="4346" width="11.42578125" style="4"/>
+    <col min="4347" max="4347" width="28.42578125" style="4" customWidth="1"/>
+    <col min="4348" max="4352" width="33.140625" style="4" customWidth="1"/>
+    <col min="4353" max="4602" width="11.42578125" style="4"/>
+    <col min="4603" max="4603" width="28.42578125" style="4" customWidth="1"/>
+    <col min="4604" max="4608" width="33.140625" style="4" customWidth="1"/>
+    <col min="4609" max="4858" width="11.42578125" style="4"/>
+    <col min="4859" max="4859" width="28.42578125" style="4" customWidth="1"/>
+    <col min="4860" max="4864" width="33.140625" style="4" customWidth="1"/>
+    <col min="4865" max="5114" width="11.42578125" style="4"/>
+    <col min="5115" max="5115" width="28.42578125" style="4" customWidth="1"/>
+    <col min="5116" max="5120" width="33.140625" style="4" customWidth="1"/>
+    <col min="5121" max="5370" width="11.42578125" style="4"/>
+    <col min="5371" max="5371" width="28.42578125" style="4" customWidth="1"/>
+    <col min="5372" max="5376" width="33.140625" style="4" customWidth="1"/>
+    <col min="5377" max="5626" width="11.42578125" style="4"/>
+    <col min="5627" max="5627" width="28.42578125" style="4" customWidth="1"/>
+    <col min="5628" max="5632" width="33.140625" style="4" customWidth="1"/>
+    <col min="5633" max="5882" width="11.42578125" style="4"/>
+    <col min="5883" max="5883" width="28.42578125" style="4" customWidth="1"/>
+    <col min="5884" max="5888" width="33.140625" style="4" customWidth="1"/>
+    <col min="5889" max="6138" width="11.42578125" style="4"/>
+    <col min="6139" max="6139" width="28.42578125" style="4" customWidth="1"/>
+    <col min="6140" max="6144" width="33.140625" style="4" customWidth="1"/>
+    <col min="6145" max="6394" width="11.42578125" style="4"/>
+    <col min="6395" max="6395" width="28.42578125" style="4" customWidth="1"/>
+    <col min="6396" max="6400" width="33.140625" style="4" customWidth="1"/>
+    <col min="6401" max="6650" width="11.42578125" style="4"/>
+    <col min="6651" max="6651" width="28.42578125" style="4" customWidth="1"/>
+    <col min="6652" max="6656" width="33.140625" style="4" customWidth="1"/>
+    <col min="6657" max="6906" width="11.42578125" style="4"/>
+    <col min="6907" max="6907" width="28.42578125" style="4" customWidth="1"/>
+    <col min="6908" max="6912" width="33.140625" style="4" customWidth="1"/>
+    <col min="6913" max="7162" width="11.42578125" style="4"/>
+    <col min="7163" max="7163" width="28.42578125" style="4" customWidth="1"/>
+    <col min="7164" max="7168" width="33.140625" style="4" customWidth="1"/>
+    <col min="7169" max="7418" width="11.42578125" style="4"/>
+    <col min="7419" max="7419" width="28.42578125" style="4" customWidth="1"/>
+    <col min="7420" max="7424" width="33.140625" style="4" customWidth="1"/>
+    <col min="7425" max="7674" width="11.42578125" style="4"/>
+    <col min="7675" max="7675" width="28.42578125" style="4" customWidth="1"/>
+    <col min="7676" max="7680" width="33.140625" style="4" customWidth="1"/>
+    <col min="7681" max="7930" width="11.42578125" style="4"/>
+    <col min="7931" max="7931" width="28.42578125" style="4" customWidth="1"/>
+    <col min="7932" max="7936" width="33.140625" style="4" customWidth="1"/>
+    <col min="7937" max="8186" width="11.42578125" style="4"/>
+    <col min="8187" max="8187" width="28.42578125" style="4" customWidth="1"/>
+    <col min="8188" max="8192" width="33.140625" style="4" customWidth="1"/>
+    <col min="8193" max="8442" width="11.42578125" style="4"/>
+    <col min="8443" max="8443" width="28.42578125" style="4" customWidth="1"/>
+    <col min="8444" max="8448" width="33.140625" style="4" customWidth="1"/>
+    <col min="8449" max="8698" width="11.42578125" style="4"/>
+    <col min="8699" max="8699" width="28.42578125" style="4" customWidth="1"/>
+    <col min="8700" max="8704" width="33.140625" style="4" customWidth="1"/>
+    <col min="8705" max="8954" width="11.42578125" style="4"/>
+    <col min="8955" max="8955" width="28.42578125" style="4" customWidth="1"/>
+    <col min="8956" max="8960" width="33.140625" style="4" customWidth="1"/>
+    <col min="8961" max="9210" width="11.42578125" style="4"/>
+    <col min="9211" max="9211" width="28.42578125" style="4" customWidth="1"/>
+    <col min="9212" max="9216" width="33.140625" style="4" customWidth="1"/>
+    <col min="9217" max="9466" width="11.42578125" style="4"/>
+    <col min="9467" max="9467" width="28.42578125" style="4" customWidth="1"/>
+    <col min="9468" max="9472" width="33.140625" style="4" customWidth="1"/>
+    <col min="9473" max="9722" width="11.42578125" style="4"/>
+    <col min="9723" max="9723" width="28.42578125" style="4" customWidth="1"/>
+    <col min="9724" max="9728" width="33.140625" style="4" customWidth="1"/>
+    <col min="9729" max="9978" width="11.42578125" style="4"/>
+    <col min="9979" max="9979" width="28.42578125" style="4" customWidth="1"/>
+    <col min="9980" max="9984" width="33.140625" style="4" customWidth="1"/>
+    <col min="9985" max="10234" width="11.42578125" style="4"/>
+    <col min="10235" max="10235" width="28.42578125" style="4" customWidth="1"/>
+    <col min="10236" max="10240" width="33.140625" style="4" customWidth="1"/>
+    <col min="10241" max="10490" width="11.42578125" style="4"/>
+    <col min="10491" max="10491" width="28.42578125" style="4" customWidth="1"/>
+    <col min="10492" max="10496" width="33.140625" style="4" customWidth="1"/>
+    <col min="10497" max="10746" width="11.42578125" style="4"/>
+    <col min="10747" max="10747" width="28.42578125" style="4" customWidth="1"/>
+    <col min="10748" max="10752" width="33.140625" style="4" customWidth="1"/>
+    <col min="10753" max="11002" width="11.42578125" style="4"/>
+    <col min="11003" max="11003" width="28.42578125" style="4" customWidth="1"/>
+    <col min="11004" max="11008" width="33.140625" style="4" customWidth="1"/>
+    <col min="11009" max="11258" width="11.42578125" style="4"/>
+    <col min="11259" max="11259" width="28.42578125" style="4" customWidth="1"/>
+    <col min="11260" max="11264" width="33.140625" style="4" customWidth="1"/>
+    <col min="11265" max="11514" width="11.42578125" style="4"/>
+    <col min="11515" max="11515" width="28.42578125" style="4" customWidth="1"/>
+    <col min="11516" max="11520" width="33.140625" style="4" customWidth="1"/>
+    <col min="11521" max="11770" width="11.42578125" style="4"/>
+    <col min="11771" max="11771" width="28.42578125" style="4" customWidth="1"/>
+    <col min="11772" max="11776" width="33.140625" style="4" customWidth="1"/>
+    <col min="11777" max="12026" width="11.42578125" style="4"/>
+    <col min="12027" max="12027" width="28.42578125" style="4" customWidth="1"/>
+    <col min="12028" max="12032" width="33.140625" style="4" customWidth="1"/>
+    <col min="12033" max="12282" width="11.42578125" style="4"/>
+    <col min="12283" max="12283" width="28.42578125" style="4" customWidth="1"/>
+    <col min="12284" max="12288" width="33.140625" style="4" customWidth="1"/>
+    <col min="12289" max="12538" width="11.42578125" style="4"/>
+    <col min="12539" max="12539" width="28.42578125" style="4" customWidth="1"/>
+    <col min="12540" max="12544" width="33.140625" style="4" customWidth="1"/>
+    <col min="12545" max="12794" width="11.42578125" style="4"/>
+    <col min="12795" max="12795" width="28.42578125" style="4" customWidth="1"/>
+    <col min="12796" max="12800" width="33.140625" style="4" customWidth="1"/>
+    <col min="12801" max="13050" width="11.42578125" style="4"/>
+    <col min="13051" max="13051" width="28.42578125" style="4" customWidth="1"/>
+    <col min="13052" max="13056" width="33.140625" style="4" customWidth="1"/>
+    <col min="13057" max="13306" width="11.42578125" style="4"/>
+    <col min="13307" max="13307" width="28.42578125" style="4" customWidth="1"/>
+    <col min="13308" max="13312" width="33.140625" style="4" customWidth="1"/>
+    <col min="13313" max="13562" width="11.42578125" style="4"/>
+    <col min="13563" max="13563" width="28.42578125" style="4" customWidth="1"/>
+    <col min="13564" max="13568" width="33.140625" style="4" customWidth="1"/>
+    <col min="13569" max="13818" width="11.42578125" style="4"/>
+    <col min="13819" max="13819" width="28.42578125" style="4" customWidth="1"/>
+    <col min="13820" max="13824" width="33.140625" style="4" customWidth="1"/>
+    <col min="13825" max="14074" width="11.42578125" style="4"/>
+    <col min="14075" max="14075" width="28.42578125" style="4" customWidth="1"/>
+    <col min="14076" max="14080" width="33.140625" style="4" customWidth="1"/>
+    <col min="14081" max="14330" width="11.42578125" style="4"/>
+    <col min="14331" max="14331" width="28.42578125" style="4" customWidth="1"/>
+    <col min="14332" max="14336" width="33.140625" style="4" customWidth="1"/>
+    <col min="14337" max="14586" width="11.42578125" style="4"/>
+    <col min="14587" max="14587" width="28.42578125" style="4" customWidth="1"/>
+    <col min="14588" max="14592" width="33.140625" style="4" customWidth="1"/>
+    <col min="14593" max="14842" width="11.42578125" style="4"/>
+    <col min="14843" max="14843" width="28.42578125" style="4" customWidth="1"/>
+    <col min="14844" max="14848" width="33.140625" style="4" customWidth="1"/>
+    <col min="14849" max="15098" width="11.42578125" style="4"/>
+    <col min="15099" max="15099" width="28.42578125" style="4" customWidth="1"/>
+    <col min="15100" max="15104" width="33.140625" style="4" customWidth="1"/>
+    <col min="15105" max="15354" width="11.42578125" style="4"/>
+    <col min="15355" max="15355" width="28.42578125" style="4" customWidth="1"/>
+    <col min="15356" max="15360" width="33.140625" style="4" customWidth="1"/>
+    <col min="15361" max="15610" width="11.42578125" style="4"/>
+    <col min="15611" max="15611" width="28.42578125" style="4" customWidth="1"/>
+    <col min="15612" max="15616" width="33.140625" style="4" customWidth="1"/>
+    <col min="15617" max="15866" width="11.42578125" style="4"/>
+    <col min="15867" max="15867" width="28.42578125" style="4" customWidth="1"/>
+    <col min="15868" max="15872" width="33.140625" style="4" customWidth="1"/>
+    <col min="15873" max="16122" width="11.42578125" style="4"/>
+    <col min="16123" max="16123" width="28.42578125" style="4" customWidth="1"/>
+    <col min="16124" max="16128" width="33.140625" style="4" customWidth="1"/>
+    <col min="16129" max="16384" width="11.42578125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A1" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="60.75" thickBot="1">
+      <c r="A2" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A3" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45.75" thickBot="1">
+      <c r="A4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A5" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45.75" thickBot="1">
+      <c r="A6" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45.75" thickBot="1">
+      <c r="A7" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45.75" thickBot="1">
+      <c r="A8" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45.75" thickBot="1">
+      <c r="A9" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A10" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A11" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="75.75" thickBot="1">
+      <c r="A12" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="75.75" thickBot="1">
+      <c r="A13" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="45.75" thickBot="1">
+      <c r="A14" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45.75" thickBot="1">
+      <c r="A15" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A16" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A17" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="60.75" thickBot="1">
+      <c r="A18" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="120.75" thickBot="1">
+      <c r="A19" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="60.75" thickBot="1">
+      <c r="A20" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A21" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="60.75" thickBot="1">
+      <c r="A22" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A23" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A24" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="60.75" thickBot="1">
+      <c r="A25" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="60.75" thickBot="1">
+      <c r="A26" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A27" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A28" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A29" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/proyectos_ec.xlsx
+++ b/data/proyectos_ec.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdante\ownCloud\Transforma Uruguay\Area Plan Nacional TPC\Plan Nacional de Competitividad\Temas\Economía Circular\ESTRATEGIAs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13F9F15-F093-4031-A4BA-7117D47471E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paises" sheetId="6" r:id="rId1"/>
@@ -12,6 +18,7 @@
     <sheet name="uy" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ciudades!$A$1:$C$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">paises!$A$1:$C$47</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -19,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>pdante</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -96,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -125,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="141">
   <si>
     <t>Finlandia</t>
   </si>
@@ -376,72 +383,6 @@
     <t>Programa regional de EC (2016)</t>
   </si>
   <si>
-    <t>Oporto</t>
-  </si>
-  <si>
-    <t>Servicio Intermunicipal de Gestión de residuos Grande Porto (2015)</t>
-  </si>
-  <si>
-    <t>Baix Camp</t>
-  </si>
-  <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Montejurra</t>
-  </si>
-  <si>
-    <t>Recogida selectiva y compostaje centralizado</t>
-  </si>
-  <si>
-    <t>Gironde</t>
-  </si>
-  <si>
-    <t>Niort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIVOM de Bapaume </t>
-  </si>
-  <si>
-    <t>Cork</t>
-  </si>
-  <si>
-    <t>Kerry</t>
-  </si>
-  <si>
-    <t>Limerick</t>
-  </si>
-  <si>
-    <t>Cupello</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Padova</t>
-  </si>
-  <si>
-    <t>Compostaje de residuos verdes</t>
-  </si>
-  <si>
-    <t>Amtres</t>
-  </si>
-  <si>
-    <t>Lipor</t>
-  </si>
-  <si>
-    <t>Arun</t>
-  </si>
-  <si>
-    <t>Castle Morpeth</t>
-  </si>
-  <si>
-    <t>Wyecycle</t>
-  </si>
-  <si>
-    <t>Compostaje doméstico</t>
-  </si>
-  <si>
     <t>Circular Economy of Construction Industry Promotion Office (CECIPO)</t>
   </si>
   <si>
@@ -478,9 +419,6 @@
     <t>agua y residuos</t>
   </si>
   <si>
-    <t>MVOTMA: Fondo Verde para el Clima</t>
-  </si>
-  <si>
     <t>general</t>
   </si>
   <si>
@@ -527,9 +465,6 @@
   </si>
   <si>
     <t>energía</t>
-  </si>
-  <si>
-    <t>MIEM: Proyecto MOVÉS</t>
   </si>
   <si>
     <t>transporte</t>
@@ -624,12 +559,21 @@
   <si>
     <t>No</t>
   </si>
+  <si>
+    <t>MVOTMA:  Proyecto CTCN</t>
+  </si>
+  <si>
+    <t>MIEM-MVOTMA: Proyecto MOVÉS</t>
+  </si>
+  <si>
+    <t>Biovalor: Foro de Economía Circular de Latinoamérica 2017</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -886,7 +830,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -918,9 +862,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -952,6 +914,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1127,21 +1107,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="84.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1152,7 +1132,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1163,7 +1143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1174,7 +1154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1185,7 +1165,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1196,7 +1176,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1207,7 +1187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1218,18 +1198,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1240,7 +1220,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1251,7 +1231,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
@@ -1262,7 +1242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -1273,7 +1253,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
@@ -1284,7 +1264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -1295,7 +1275,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1306,7 +1286,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -1317,7 +1297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -1328,7 +1308,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -1339,7 +1319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>41</v>
       </c>
@@ -1350,7 +1330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
@@ -1361,7 +1341,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
@@ -1372,7 +1352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -1383,7 +1363,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
@@ -1394,7 +1374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -1405,7 +1385,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>45</v>
       </c>
@@ -1416,7 +1396,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
@@ -1427,7 +1407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>47</v>
       </c>
@@ -1438,7 +1418,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>48</v>
       </c>
@@ -1460,7 +1440,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>49</v>
       </c>
@@ -1471,7 +1451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>50</v>
       </c>
@@ -1482,7 +1462,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>51</v>
       </c>
@@ -1493,7 +1473,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>52</v>
       </c>
@@ -1504,7 +1484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>53</v>
       </c>
@@ -1515,7 +1495,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>11</v>
       </c>
@@ -1526,7 +1506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -1537,7 +1517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -1548,7 +1528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>10</v>
       </c>
@@ -1559,7 +1539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>11</v>
       </c>
@@ -1570,18 +1550,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -1592,7 +1572,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1603,51 +1583,51 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="2" customFormat="1">
+    <row r="44" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>54</v>
       </c>
@@ -1658,30 +1638,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="2" customFormat="1">
+    <row r="48" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1"/>
+    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:C47"/>
+  <autoFilter ref="A1:C47" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="B5" location="_ftn1" display="_ftn1"/>
-    <hyperlink ref="B6" location="_ftn2" display="_ftn2"/>
-    <hyperlink ref="B40" location="_ftn7" display="_ftn7"/>
-    <hyperlink ref="B42" location="_ftn8" display="_ftn8"/>
-    <hyperlink ref="B43" location="_ftn9" display="_ftn9"/>
-    <hyperlink ref="B45" location="_ftn10" display="_ftn10"/>
-    <hyperlink ref="B46" location="_ftn11" display="_ftn11"/>
-    <hyperlink ref="B9:B35" location="_ftn4" display="_ftn4"/>
-    <hyperlink ref="B44" location="_ftn10" display="_ftn10"/>
+    <hyperlink ref="B5" location="_ftn1" display="_ftn1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" location="_ftn2" display="_ftn2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B40" location="_ftn7" display="_ftn7" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B42" location="_ftn8" display="_ftn8" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B43" location="_ftn9" display="_ftn9" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B45" location="_ftn10" display="_ftn10" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B46" location="_ftn11" display="_ftn11" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9:B35" location="_ftn4" display="_ftn4" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B44" location="_ftn10" display="_ftn10" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1689,32 +1669,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -1725,18 +1705,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -1747,7 +1727,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>62</v>
       </c>
@@ -1758,7 +1738,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -1769,7 +1749,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
@@ -1780,7 +1760,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>69</v>
       </c>
@@ -1791,7 +1771,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>71</v>
       </c>
@@ -1802,7 +1782,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>73</v>
       </c>
@@ -1813,7 +1793,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>75</v>
       </c>
@@ -1824,7 +1804,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>79</v>
       </c>
@@ -1835,7 +1815,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>78</v>
       </c>
@@ -1846,7 +1826,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>81</v>
       </c>
@@ -1857,218 +1837,21 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
         <v>83</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>102</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:C15" xr:uid="{E90D77D1-E871-4FA5-AAE8-55A68AE0AECF}"/>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1" display="https://www.seeker.com/how-san-francisco-is-becoming-a-zero-waste-city-1893330043.html"/>
+    <hyperlink ref="A10" r:id="rId1" display="https://www.seeker.com/how-san-francisco-is-becoming-a-zero-waste-city-1893330043.html" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2076,14 +1859,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.42578125" style="17" customWidth="1"/>
     <col min="2" max="6" width="33.140625" style="17" customWidth="1"/>
@@ -2279,584 +2062,596 @@
     <col min="16129" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.75" thickBot="1">
+    <row r="1" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B15" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C15" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="C16" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="B17" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="B18" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="60.75" thickBot="1">
-      <c r="A2" s="11" t="s">
+      <c r="B20" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B21" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30.75" thickBot="1">
-      <c r="A3" s="11" t="s">
+      <c r="B22" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B23" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="45.75" thickBot="1">
-      <c r="A4" s="11" t="s">
+      <c r="B24" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B25" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30.75" thickBot="1">
-      <c r="A5" s="11" t="s">
+      <c r="B26" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B27" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="45.75" thickBot="1">
-      <c r="A6" s="11" t="s">
+      <c r="B28" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="45.75" thickBot="1">
-      <c r="A7" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45.75" thickBot="1">
-      <c r="A8" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="45.75" thickBot="1">
-      <c r="A9" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30.75" thickBot="1">
-      <c r="A10" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30.75" thickBot="1">
-      <c r="A11" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="75.75" thickBot="1">
-      <c r="A12" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="75.75" thickBot="1">
-      <c r="A13" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="45.75" thickBot="1">
-      <c r="A14" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="45.75" thickBot="1">
-      <c r="A15" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A16" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30.75" thickBot="1">
-      <c r="A17" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="60.75" thickBot="1">
-      <c r="A18" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="120.75" thickBot="1">
-      <c r="A19" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="60.75" thickBot="1">
-      <c r="A20" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30.75" thickBot="1">
-      <c r="A21" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="60.75" thickBot="1">
-      <c r="A22" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30.75" thickBot="1">
-      <c r="A23" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A24" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="60.75" thickBot="1">
-      <c r="A25" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="60.75" thickBot="1">
-      <c r="A26" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30.75" thickBot="1">
-      <c r="A27" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30.75" thickBot="1">
-      <c r="A28" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30.75" thickBot="1">
-      <c r="A29" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>161</v>
+      <c r="B30" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/data/proyectos_ec.xlsx
+++ b/data/proyectos_ec.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdante\ownCloud\Transforma Uruguay\Area Plan Nacional TPC\Plan Nacional de Competitividad\Temas\Economía Circular\ESTRATEGIAs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13F9F15-F093-4031-A4BA-7117D47471E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="paises" sheetId="6" r:id="rId1"/>
@@ -21,17 +15,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ciudades!$A$1:$C$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">paises!$A$1:$C$47</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>pdante</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="144">
   <si>
     <t>Finlandia</t>
   </si>
@@ -525,6 +519,35 @@
   </si>
   <si>
     <t xml:space="preserve">Ordenanza de reciclaje en Construcción </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoja de Rutas </t>
+  </si>
+  <si>
+    <t>ciudad</t>
+  </si>
+  <si>
+    <t>vision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tipo </t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>MVOTMA: Fondo Verde para el Clima</t>
+  </si>
+  <si>
+    <t>UdelaR: Departamento de Ingeniería
+Química/Bioprocesos y Facultad de
+Química/Biotecnología</t>
+  </si>
+  <si>
+    <t>MIEM: Proyecto MOVÉS</t>
   </si>
   <si>
     <r>
@@ -532,48 +555,29 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
         <color indexed="23"/>
-        <rFont val="Calibri"/>
+        <rFont val="Myriad Pro"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>, cuyo objetivo es proteger el ambiente, promover un modelo de desarrollo sostenible tomando en cuenta varios principios de la economía circular.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Hoja de Rutas </t>
-  </si>
-  <si>
-    <t>ciudad</t>
-  </si>
-  <si>
-    <t>vision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tipo </t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>MVOTMA:  Proyecto CTCN</t>
-  </si>
-  <si>
-    <t>MIEM-MVOTMA: Proyecto MOVÉS</t>
-  </si>
-  <si>
-    <t>Biovalor: Foro de Economía Circular de Latinoamérica 2017</t>
+    <t>Foro de Economía Circular de Latinoamérica</t>
+  </si>
+  <si>
+    <t>Plataforma Industrial: Mercado virtual de subproductos, servicios e infraestructura del sector industrial</t>
+  </si>
+  <si>
+    <t>general y residuos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,36 +612,26 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color rgb="FF767171"/>
+      <name val="Myriad Pro"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF767171"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF767171"/>
-      <name val="Calibri"/>
+      <name val="Myriad Pro"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color indexed="23"/>
-      <name val="Calibri"/>
+      <name val="Myriad Pro"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -646,25 +640,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1F497D"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC5D9F1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDAEEF3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,43 +715,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -830,7 +803,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -862,27 +835,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -914,24 +869,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1107,21 +1044,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="84.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1132,7 +1069,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1143,7 +1080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1154,7 +1091,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1165,7 +1102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1176,7 +1113,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1187,7 +1124,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1198,7 +1135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1209,7 +1146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1220,7 +1157,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1231,7 +1168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
@@ -1242,7 +1179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -1253,7 +1190,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
@@ -1264,7 +1201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -1275,7 +1212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1286,7 +1223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -1297,7 +1234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -1308,7 +1245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -1319,7 +1256,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>41</v>
       </c>
@@ -1330,7 +1267,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
@@ -1341,7 +1278,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
@@ -1352,7 +1289,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -1363,7 +1300,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
@@ -1374,7 +1311,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -1385,7 +1322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>45</v>
       </c>
@@ -1396,7 +1333,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
@@ -1407,7 +1344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>47</v>
       </c>
@@ -1418,7 +1355,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
@@ -1429,7 +1366,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>48</v>
       </c>
@@ -1440,7 +1377,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>49</v>
       </c>
@@ -1451,7 +1388,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
         <v>50</v>
       </c>
@@ -1462,7 +1399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>51</v>
       </c>
@@ -1473,7 +1410,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
         <v>52</v>
       </c>
@@ -1484,7 +1421,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
         <v>53</v>
       </c>
@@ -1495,7 +1432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
         <v>11</v>
       </c>
@@ -1506,7 +1443,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -1517,7 +1454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -1528,7 +1465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>10</v>
       </c>
@@ -1539,7 +1476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>11</v>
       </c>
@@ -1550,7 +1487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
@@ -1561,7 +1498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -1572,7 +1509,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1583,7 +1520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>19</v>
       </c>
@@ -1594,7 +1531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" s="2" customFormat="1">
       <c r="A44" s="5" t="s">
         <v>124</v>
       </c>
@@ -1605,7 +1542,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
         <v>17</v>
       </c>
@@ -1613,10 +1550,10 @@
         <v>126</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>18</v>
       </c>
@@ -1627,7 +1564,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>54</v>
       </c>
@@ -1638,7 +1575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" s="2" customFormat="1">
       <c r="A48" s="1" t="s">
         <v>85</v>
       </c>
@@ -1649,19 +1586,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="2" customFormat="1"/>
   </sheetData>
-  <autoFilter ref="A1:C47" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C47"/>
   <hyperlinks>
-    <hyperlink ref="B5" location="_ftn1" display="_ftn1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B6" location="_ftn2" display="_ftn2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B40" location="_ftn7" display="_ftn7" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B42" location="_ftn8" display="_ftn8" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B43" location="_ftn9" display="_ftn9" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B45" location="_ftn10" display="_ftn10" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B46" location="_ftn11" display="_ftn11" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B9:B35" location="_ftn4" display="_ftn4" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B44" location="_ftn10" display="_ftn10" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B5" location="_ftn1" display="_ftn1"/>
+    <hyperlink ref="B6" location="_ftn2" display="_ftn2"/>
+    <hyperlink ref="B40" location="_ftn7" display="_ftn7"/>
+    <hyperlink ref="B42" location="_ftn8" display="_ftn8"/>
+    <hyperlink ref="B43" location="_ftn9" display="_ftn9"/>
+    <hyperlink ref="B45" location="_ftn10" display="_ftn10"/>
+    <hyperlink ref="B46" location="_ftn11" display="_ftn11"/>
+    <hyperlink ref="B9:B35" location="_ftn4" display="_ftn4"/>
+    <hyperlink ref="B44" location="_ftn10" display="_ftn10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1669,32 +1606,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -1705,7 +1642,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -1716,7 +1653,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -1727,7 +1664,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>62</v>
       </c>
@@ -1738,7 +1675,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -1749,7 +1686,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
@@ -1760,7 +1697,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>69</v>
       </c>
@@ -1771,7 +1708,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>71</v>
       </c>
@@ -1782,7 +1719,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>73</v>
       </c>
@@ -1793,7 +1730,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>75</v>
       </c>
@@ -1804,7 +1741,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>79</v>
       </c>
@@ -1815,7 +1752,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>78</v>
       </c>
@@ -1826,7 +1763,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>81</v>
       </c>
@@ -1837,7 +1774,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>84</v>
       </c>
@@ -1849,9 +1786,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C15" xr:uid="{E90D77D1-E871-4FA5-AAE8-55A68AE0AECF}"/>
+  <autoFilter ref="A1:C15"/>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1" display="https://www.seeker.com/how-san-francisco-is-becoming-a-zero-waste-city-1893330043.html" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A10" r:id="rId1" display="https://www.seeker.com/how-san-francisco-is-becoming-a-zero-waste-city-1893330043.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1859,17 +1796,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="17" customWidth="1"/>
-    <col min="2" max="6" width="33.140625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="8" customWidth="1"/>
+    <col min="2" max="6" width="33.140625" style="8" customWidth="1"/>
     <col min="7" max="250" width="11.42578125" style="4"/>
     <col min="251" max="251" width="28.42578125" style="4" customWidth="1"/>
     <col min="252" max="256" width="33.140625" style="4" customWidth="1"/>
@@ -2062,596 +1999,644 @@
     <col min="16129" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" ht="32.25" thickBot="1">
+      <c r="A1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:6" ht="63.75" thickBot="1">
+      <c r="A2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="C2" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="32.25" thickBot="1">
+      <c r="A3" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="B3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="48" thickBot="1">
+      <c r="A4" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="32.25" thickBot="1">
+      <c r="A5" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="48" thickBot="1">
+      <c r="A6" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="48" thickBot="1">
+      <c r="A7" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="63.75" thickBot="1">
+      <c r="A8" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="48" thickBot="1">
+      <c r="A9" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="32.25" thickBot="1">
+      <c r="A10" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="32.25" thickBot="1">
+      <c r="A11" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="79.5" thickBot="1">
+      <c r="A12" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="79.5" thickBot="1">
+      <c r="A13" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B13" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="79.5" thickBot="1">
+      <c r="A14" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="63.75" thickBot="1">
+      <c r="A15" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="C15" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="48" thickBot="1">
+      <c r="A16" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A17" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="32.25" thickBot="1">
+      <c r="A18" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="63.75" thickBot="1">
+      <c r="A19" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="126.75" thickBot="1">
+      <c r="A20" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="63.75" thickBot="1">
+      <c r="A21" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="32.25" thickBot="1">
+      <c r="A22" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="63.75" thickBot="1">
+      <c r="A23" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="12" t="s">
+      <c r="C23" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="32.25" thickBot="1">
+      <c r="A24" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="C24" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A25" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="C25" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="63.75" thickBot="1">
+      <c r="A26" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="63.75" thickBot="1">
+      <c r="A27" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="32.25" thickBot="1">
+      <c r="A28" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="32.25" thickBot="1">
+      <c r="A29" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="12" t="s">
+      <c r="C29" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="32.25" thickBot="1">
+      <c r="A30" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="12" t="s">
+      <c r="C30" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="32.25" thickBot="1">
+      <c r="A31" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-    </row>
-    <row r="30" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>137</v>
+      <c r="C31" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="79.5" thickBot="1">
+      <c r="A32" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
